--- a/Evento_Acoes_Sociais.xlsx
+++ b/Evento_Acoes_Sociais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -102,10 +102,7 @@
     <t>14:30</t>
   </si>
   <si>
-    <t>M/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00 e 18:30</t>
+    <t>9:00-11:00</t>
   </si>
   <si>
     <t xml:space="preserve">VESTIBULAR GRAU SOCIAL – Bolsas 100%</t>
@@ -130,12 +127,21 @@
   </si>
   <si>
     <t xml:space="preserve">Enf. Kleiton Richard</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:30- 21:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.000000"/>
@@ -186,10 +192,21 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +736,7 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="10.421875"/>
     <col bestFit="1" min="2" max="2" width="6.8515625"/>
-    <col bestFit="1" min="3" max="3" width="11.7109375"/>
+    <col bestFit="1" min="3" max="3" width="12.23046875"/>
     <col bestFit="1" min="4" max="4" width="40.57421875"/>
     <col bestFit="1" min="5" max="5" width="22.140625"/>
   </cols>
@@ -861,20 +878,20 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="2">
+        <v>45919</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -888,10 +905,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -902,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -919,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -936,13 +953,30 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Acoes_Sociais.xlsx
+++ b/Evento_Acoes_Sociais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Data</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">18:30- 21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libras para Iniciantes: Oficina Prática</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -203,9 +206,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -972,11 +972,25 @@
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="2">
+        <v>45920</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Acoes_Sociais.xlsx
+++ b/Evento_Acoes_Sociais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Data</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Libras para Iniciantes: Oficina Prática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Alves da Silva</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="2">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -991,6 +994,9 @@
       </c>
       <c r="D15" t="s">
         <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Acoes_Sociais.xlsx
+++ b/Evento_Acoes_Sociais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t xml:space="preserve">Professor Alves da Silva</t>
+  </si>
+  <si>
+    <t>09:00-16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagas - Auxiliar de Logística - Auxilia de Armazém </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM Empilhadeira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagas - Telemarketing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolve Já </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagas - 7 vagas de vendedor(a) ótica/2 recepcionista para cliente/2 Gerentes de vendas (ótica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líderes Consultoria e Treinamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagas - Vendedor Interno /Vendedor externo /Estágio ( Setor Financeiro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grau Técnico</t>
+  </si>
+  <si>
+    <t>08:00-12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissão de novas CIN (Carteira de Identidade Nacional).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Cidadania Digital Félix Pacheco</t>
   </si>
 </sst>
 </file>
@@ -198,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,6 +247,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +771,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -740,8 +780,8 @@
     <col bestFit="1" min="1" max="1" width="10.421875"/>
     <col bestFit="1" min="2" max="2" width="6.8515625"/>
     <col bestFit="1" min="3" max="3" width="12.23046875"/>
-    <col bestFit="1" min="4" max="4" width="40.57421875"/>
-    <col bestFit="1" min="5" max="5" width="22.140625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="63.76171875"/>
+    <col bestFit="1" min="5" max="5" width="37.76171875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -997,6 +1037,96 @@
       </c>
       <c r="E15" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="2">
+        <v>45916</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="2">
+        <v>45917</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5">
+      <c r="A18" s="2">
+        <v>45918</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="2">
+        <v>45919</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Acoes_Sociais.xlsx
+++ b/Evento_Acoes_Sociais.xlsx
@@ -771,7 +771,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1043,6 +1043,9 @@
       <c r="A16" s="2">
         <v>45916</v>
       </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -1057,6 +1060,9 @@
       <c r="A17" s="2">
         <v>45917</v>
       </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -1071,6 +1077,9 @@
       <c r="A18" s="2">
         <v>45918</v>
       </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -1084,6 +1093,9 @@
     <row r="19" ht="14.25">
       <c r="A19" s="2">
         <v>45919</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>

--- a/Evento_Acoes_Sociais.xlsx
+++ b/Evento_Acoes_Sociais.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$23</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -72,22 +75,37 @@
     <t>08:00–12:00</t>
   </si>
   <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>08:30–12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTE DE CABELO COMUNITÁRIO MASCULINO</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>17/09/2025</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>08:30–17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTE DE CABELO COMUNITÁRIO MASCULINO</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>08:30</t>
+    <t>13:00–17:00</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VESTIBULAR GRAU SOCIAL – Bolsas 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituição Grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINI FEIRÃO DA EMPREGABILIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresas Parceiras</t>
   </si>
   <si>
     <t xml:space="preserve">AÇÃO HEMOPI: Doe Sangue, Doe Vida</t>
@@ -99,27 +117,6 @@
     <t>19/09/2025</t>
   </si>
   <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>9:00-11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VESTIBULAR GRAU SOCIAL – Bolsas 100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituição Grau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINI FEIRÃO DA EMPREGABILIDADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresas Parceiras</t>
-  </si>
-  <si>
-    <t>08:30–12:00</t>
-  </si>
-  <si>
     <t>14:30–17:00</t>
   </si>
   <si>
@@ -175,6 +172,15 @@
   </si>
   <si>
     <t xml:space="preserve">Instituto de Cidadania Digital Félix Pacheco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÇÃO SAÚDE: aferição PA e Glicemia Capilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipe Técnicos em Enfermagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:00-12:00</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,6 +256,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +778,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -874,274 +881,328 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="E10" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>45919</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="2">
-        <v>45919</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
+      <c r="E14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="2">
-        <v>45918</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
+        <v>45919</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="2">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2">
         <v>45917</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5">
+      <c r="A19" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5">
-      <c r="A18" s="2">
-        <v>45918</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="2">
-        <v>45919</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7" t="s">
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E23" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2">
+        <v>45920</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:A23"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
